--- a/Customer-Order-OM_Schema_Abstract_Resource/customer-order-dataset/Customer_Order_Exp_Dataset_Refined.xlsx
+++ b/Customer-Order-OM_Schema_Abstract_Resource/customer-order-dataset/Customer_Order_Exp_Dataset_Refined.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rashedhasan/Desktop/UNL/Research/Object relational mapping/Step 5 - Abstraction/OM-Solution_Mapping/OM-ML_Research/Customer-Order-OM_Schema_Abstract_Resource/customer-order-dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8567B898-BE97-864D-82F4-D82C72ACBD42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04B31887-2943-3345-9814-6A8BE11F1883}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="900" windowWidth="28800" windowHeight="15980" xr2:uid="{249923C2-717E-F44B-9D41-3A037F7CDE74}"/>
   </bookViews>
@@ -456,7 +456,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
